--- a/Esercizio5.dapt.epicodesupino.xlsx
+++ b/Esercizio5.dapt.epicodesupino.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supin\Desktop\Cloud\DataAnalysis\Epicode\Esercizio5.dapt.epicodesupino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D2259D-722A-4245-AD61-7482DEB02013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF000F2B-55B3-4646-8698-ABC2DFE9FA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{843EC4CB-6455-4E26-94CD-EEF610ABC7CA}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="1072">
   <si>
     <t>Team</t>
   </si>
@@ -3260,9 +3260,6 @@
     <t>PK No</t>
   </si>
   <si>
-    <t>FK No</t>
-  </si>
-  <si>
     <t>Country FK</t>
   </si>
   <si>
@@ -3285,6 +3282,15 @@
   </si>
   <si>
     <t>LISTA TEAM</t>
+  </si>
+  <si>
+    <t>PK Driver</t>
+  </si>
+  <si>
+    <t>No PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No FK</t>
   </si>
 </sst>
 </file>
@@ -3438,7 +3444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3488,6 +3494,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3557,7 +3568,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3578,7 +3589,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3685,17 +3696,17 @@
   <autoFilter ref="A1:O23" xr:uid="{B2567B93-481E-4594-A632-16FA97761136}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{A792BD03-7803-4CAC-81C0-2974C7DAC330}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{4A31E124-9E77-4FF1-BE5B-035C317DF7B5}" uniqueName="2" name="Race Date" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{EBD0A56D-AA5C-424D-9051-D84EA7B89147}" uniqueName="3" name="GP Name" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{C61B3F64-B930-47BE-AEEC-764A1F9B05F8}" uniqueName="4" name="Country" queryTableFieldId="4" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{D82C45EE-ADFF-494C-810E-5D8975B6E72B}" uniqueName="5" name="City" queryTableFieldId="5" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{A267ECA3-0F35-41AB-B87A-C82415E768DF}" uniqueName="6" name="Circuit Name" queryTableFieldId="6" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{4A31E124-9E77-4FF1-BE5B-035C317DF7B5}" uniqueName="2" name="Race Date" queryTableFieldId="2" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{EBD0A56D-AA5C-424D-9051-D84EA7B89147}" uniqueName="3" name="GP Name" queryTableFieldId="3" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{C61B3F64-B930-47BE-AEEC-764A1F9B05F8}" uniqueName="4" name="Country" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{D82C45EE-ADFF-494C-810E-5D8975B6E72B}" uniqueName="5" name="City" queryTableFieldId="5" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{A267ECA3-0F35-41AB-B87A-C82415E768DF}" uniqueName="6" name="Circuit Name" queryTableFieldId="6" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{5BD74308-4FBB-4193-87DF-3773A054B481}" uniqueName="7" name="First GP" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{88D1FEF5-B52B-4B1A-ABF9-D04AD2665F3C}" uniqueName="8" name="Number of Laps" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{10DAEAD4-D381-493F-9126-B314785988DA}" uniqueName="9" name="Circuit Length(km)" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{FA146C4A-D8D8-4E36-B6F8-713F8A35E8D2}" uniqueName="10" name="Race Distance(km)" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{8E20AD29-D823-4992-831B-F464BDBC1EED}" uniqueName="11" name="Lap Record" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{5FCDFB2A-B9D0-4D7A-AA83-FF9E0F165EF6}" uniqueName="12" name="Record Owner" queryTableFieldId="12" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{8E20AD29-D823-4992-831B-F464BDBC1EED}" uniqueName="11" name="Lap Record" queryTableFieldId="11" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{5FCDFB2A-B9D0-4D7A-AA83-FF9E0F165EF6}" uniqueName="12" name="Record Owner" queryTableFieldId="12" dataDxfId="22"/>
     <tableColumn id="13" xr3:uid="{A4E2C812-C742-44C4-B240-ED343FFDE08C}" uniqueName="13" name="Record Year" queryTableFieldId="13"/>
     <tableColumn id="14" xr3:uid="{22E9EA5A-21B9-4723-B4C3-426579CFB016}" uniqueName="14" name="Turns" queryTableFieldId="14"/>
     <tableColumn id="15" xr3:uid="{8BC7A989-D599-4410-8EDD-23FBC68DB164}" uniqueName="15" name="DRS Zones" queryTableFieldId="15"/>
@@ -3708,17 +3719,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1455F190-C360-4CAF-91ED-F23F4ABBBF12}" name="Formula1_2022season_raceResults__2" displayName="Formula1_2022season_raceResults__2" ref="A1:K441" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K441" xr:uid="{1455F190-C360-4CAF-91ED-F23F4ABBBF12}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4F392BE7-8588-4B75-B54E-FC743E49780D}" uniqueName="1" name="Track" queryTableFieldId="1" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{07EE2BC8-B4E9-4B8B-B6E7-F2B70EC34D20}" uniqueName="2" name="Position" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{4F392BE7-8588-4B75-B54E-FC743E49780D}" uniqueName="1" name="Track" queryTableFieldId="1" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{07EE2BC8-B4E9-4B8B-B6E7-F2B70EC34D20}" uniqueName="2" name="Position" queryTableFieldId="2" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{1C2925DB-FA9A-4775-91CA-84F16BF853C7}" uniqueName="3" name="No" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{9AD73006-3727-4232-A049-2A8C9B150512}" uniqueName="4" name="Driver" queryTableFieldId="4" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{3211C0CB-3417-4888-979F-8C5FCB7AF694}" uniqueName="5" name="Team" queryTableFieldId="5" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{9AD73006-3727-4232-A049-2A8C9B150512}" uniqueName="4" name="Driver" queryTableFieldId="4" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{3211C0CB-3417-4888-979F-8C5FCB7AF694}" uniqueName="5" name="Team" queryTableFieldId="5" dataDxfId="18"/>
     <tableColumn id="6" xr3:uid="{069F197C-5EFB-45D0-B3E2-FF8F1F043740}" uniqueName="6" name="Starting Grid" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{063FECB7-8BD1-4AF2-8757-9B9A145412DA}" uniqueName="7" name="Laps" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{018035D6-F54B-4FF4-98FB-44C6425B6BB3}" uniqueName="8" name="Time/Retired" queryTableFieldId="8" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{018035D6-F54B-4FF4-98FB-44C6425B6BB3}" uniqueName="8" name="Time/Retired" queryTableFieldId="8" dataDxfId="17"/>
     <tableColumn id="9" xr3:uid="{C98883C1-4E6E-405C-87A8-B61555C8EDB8}" uniqueName="9" name="Points" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{F500D04D-3BE2-492E-994D-12B057E9A1AD}" uniqueName="10" name="+1 Pt" queryTableFieldId="10" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{69C5A1CE-91C5-43A8-90CA-C8A39C4F937F}" uniqueName="11" name="Fastest Lap" queryTableFieldId="11" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{F500D04D-3BE2-492E-994D-12B057E9A1AD}" uniqueName="10" name="+1 Pt" queryTableFieldId="10" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{69C5A1CE-91C5-43A8-90CA-C8A39C4F937F}" uniqueName="11" name="Fastest Lap" queryTableFieldId="11" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22068,7 +22079,7 @@
   <dimension ref="B1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22085,7 +22096,7 @@
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="28" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22113,13 +22124,13 @@
         <v>102</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>42</v>
+      <c r="J4" s="30" t="s">
+        <v>1060</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>43</v>
@@ -22662,7 +22673,7 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22683,7 +22694,7 @@
         <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22691,7 +22702,7 @@
         <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -22702,7 +22713,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
@@ -22714,10 +22725,10 @@
         <v>45</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>1071</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>1069</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>0</v>
@@ -23377,7 +23388,7 @@
   <dimension ref="B3:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23396,15 +23407,15 @@
   <sheetData>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -23418,11 +23429,11 @@
       <c r="H4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>1065</v>
+      <c r="I4" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>1064</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>83</v>
@@ -23732,7 +23743,7 @@
     </row>
     <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="28" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>63</v>
@@ -23833,6 +23844,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
